--- a/batch_grouping/new_datasets/lotes_agrupados_origem.xlsx
+++ b/batch_grouping/new_datasets/lotes_agrupados_origem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Lote ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,29 +451,34 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Lote Original</t>
+          <t>Quantidade</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Qtd Usada</t>
+          <t>Lote_id</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Localização</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lote</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Localização</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28c8edde3d61a0411511d3b1866f0636</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -484,29 +489,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>GU6548</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bloqueado</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>G1</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>665f644e43731ff9db3d341da5c827e1</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -517,29 +525,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GU6234</t>
-        </is>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6966</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38026ed22fc1a91d92b5d2ef93540f20</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -550,29 +561,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>GU6966</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bloqueado</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>G1</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011ecee7d295c066ae68d4396215c3d0</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -583,29 +597,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>GU6263</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>21</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bloqueado</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>G1</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>011ecee7d295c066ae68d4396215c3d0</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -616,29 +633,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GU6755</t>
-        </is>
+      <c r="D6" t="n">
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6263</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>011ecee7d295c066ae68d4396215c3d0</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -649,29 +669,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GU6061</t>
-        </is>
+      <c r="D7" t="n">
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6755</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4e44f1ac85cd60e3caa56bfd4afb675e</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -679,32 +702,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GU6337</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6061</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4e44f1ac85cd60e3caa56bfd4afb675e</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -712,32 +738,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GU6877</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6061</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4e44f1ac85cd60e3caa56bfd4afb675e</t>
+          <t>495223 Q2</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -745,32 +774,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GU6666</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6234</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3d2f8900f2e49c02b481c2f717aa9020</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -781,29 +813,32 @@
           <t>Q3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GU6009</t>
-        </is>
+      <c r="D11" t="n">
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6146</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cd7fd1517e323f26c6f1b0b6b96e3b3d</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -814,194 +849,212 @@
           <t>Q3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GU6146</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6009</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>815e6212def15fe76ed27cec7a393d59</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495224</v>
+        <v>495223</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GU6616</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6009</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>815e6212def15fe76ed27cec7a393d59</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>495224</v>
+        <v>495223</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GU6912</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6337</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4c0d13d3ad6cc317017872e51d01b238</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>495224</v>
+        <v>495223</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GU6379</t>
-        </is>
+      <c r="D15" t="n">
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6877</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4c0d13d3ad6cc317017872e51d01b238</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495224</v>
+        <v>495223</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GU6177</t>
-        </is>
+      <c r="D16" t="n">
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6666</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8d8e353b98d5191d5ceea1aa3eb05d43</t>
+          <t>495223 Q3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495224</v>
+        <v>495223</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GU6152</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6666</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8d8e353b98d5191d5ceea1aa3eb05d43</t>
+          <t>495224 Q1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1009,230 +1062,251 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GU6819</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6912</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7bfc85c0d74ff05806e0b5a0fa0c1df1</t>
+          <t>495224 Q1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495225</v>
+        <v>495224</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GU6635</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6616</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7bfc85c0d74ff05806e0b5a0fa0c1df1</t>
+          <t>495224 Q3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495225</v>
+        <v>495224</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GU6061</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6177</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>c8b2f17833a4c73bb20f88876219ddcd</t>
+          <t>495224 Q3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>495225</v>
+        <v>495224</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GU6997</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6379</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7e51746feafa7f2621f71943da8f603c</t>
+          <t>495224 Q3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495225</v>
+        <v>495224</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GU6877</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6152</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>f93b8bbbac89ea22bac0bf188ba49a61</t>
+          <t>495224 Q3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495225</v>
+        <v>495224</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GU6327</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6152</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>f93b8bbbac89ea22bac0bf188ba49a61</t>
+          <t>495224 Q3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>495225</v>
+        <v>495224</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GU6808</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6819</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ad8b68a55505a09ac7578f32418904b3</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1243,29 +1317,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GU6159</t>
-        </is>
+      <c r="D25" t="n">
+        <v>25</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6997</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ad8b68a55505a09ac7578f32418904b3</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1276,29 +1353,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GU6435</t>
-        </is>
+      <c r="D26" t="n">
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6877</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ad8b68a55505a09ac7578f32418904b3</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1309,29 +1389,32 @@
           <t>Q2</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GU6738</t>
-        </is>
+      <c r="D27" t="n">
+        <v>24</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6877</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>93b6deed95aca08ab22dae75e28592b1</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1339,32 +1422,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GU6861</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6738</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27a989a1aeab2b96cedd2b6c4a7cba2f</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1372,362 +1458,395 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GU6432</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6808</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30ded6806f6f7f65952d5752e3ceaab6</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GU6337</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6808</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>538b45ef5c6f26b001e71b1c55b26a2c</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GU6548</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6435</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>538b45ef5c6f26b001e71b1c55b26a2c</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GU6847</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6635</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>74d8ce91d143cad52fad9d3661dded18</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GU6053</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6635</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>74d8ce91d143cad52fad9d3661dded18</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GU6210</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6327</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>e39a411b54c3ce46fd382fef7f632157</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GU6994</t>
-        </is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6061</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4a0f84dd91471107bf6a1dfce1d62fc0</t>
+          <t>495225 Q2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GU6147</t>
-        </is>
+      <c r="D36" t="n">
+        <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6159</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4a0f84dd91471107bf6a1dfce1d62fc0</t>
+          <t>495225 Q3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GU6421</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6861</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6f181f206b8555c5dc619bc206ab35ad</t>
+          <t>495225 Q3</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GU6997</t>
-        </is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6432</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>83a5a282f092aa7baf6982b54227bb54</t>
+          <t>495225 Q3</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>495226</v>
+        <v>495225</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GU6295</t>
-        </is>
+      <c r="D39" t="n">
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6432</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>83a5a282f092aa7baf6982b54227bb54</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1735,32 +1854,35 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GU6512</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6548</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>c81fb13777b701cb8ce6cdb7f0661f1b</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1768,32 +1890,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GU6479</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6994</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>683529bb1b0fedc340f2ebce47468395</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1801,157 +1926,748 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GU6013</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6994</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>80ecd7abc0579af356a6ca6fb24ec486</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495227</v>
+        <v>495226</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GU6949</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6847</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>80ecd7abc0579af356a6ca6fb24ec486</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>495227</v>
+        <v>495226</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GU6612</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6337</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>29bdbc822df2e6c13dcf4afe6913525f</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>495227</v>
+        <v>495226</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GU6454</t>
-        </is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bloqueado</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>GU6337</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>29bdbc822df2e6c13dcf4afe6913525f</t>
+          <t>495226 Q1</t>
         </is>
       </c>
       <c r="B46" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13</v>
+      </c>
+      <c r="E46" t="n">
+        <v>19</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>GU6210</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>495226 Q1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>19</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>GU6053</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>495226 Q1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>GU6053</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>495226 Q2</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>23</v>
+      </c>
+      <c r="E49" t="n">
+        <v>21</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>GU6421</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>495226 Q2</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>GU6147</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>495226 Q2</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>21</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>GU6997</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>495226 Q3</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>24</v>
+      </c>
+      <c r="E52" t="n">
+        <v>22</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>GU6479</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>495226 Q3</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>22</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>GU6295</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>495226 Q3</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>22</v>
+      </c>
+      <c r="E54" t="n">
+        <v>23</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>GU6295</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>495226 Q3</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>GU6512</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>495226 Q3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>23</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>GU6013</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>495226 Q3</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>495226</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>24</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>GU6013</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>495227 Q3</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>495227</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D58" t="n">
+        <v>23</v>
+      </c>
+      <c r="E58" t="n">
+        <v>25</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>GU6182</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>23</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bloqueado</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>G1</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>495227 Q3</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>495227</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>GU6454</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>495227 Q3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>495227</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>GU6454</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>495227 Q3</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>495227</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>26</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>GU6949</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>495227 Q3</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>495227</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>13</v>
+      </c>
+      <c r="E62" t="n">
+        <v>26</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>GU6612</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bloqueado</t>
         </is>
       </c>
     </row>
